--- a/reports/vivado/CodeHoistingSolution/power/CodeHoistingSignalsDataPowerReport.xlsx
+++ b/reports/vivado/CodeHoistingSolution/power/CodeHoistingSignalsDataPowerReport.xlsx
@@ -6994,7 +6994,7 @@
         <v>7.0</v>
       </c>
       <c r="F209" t="n" s="7">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G209" t="s" s="4">
         <v>11</v>
